--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -67,7 +67,7 @@
     <t>103-EAGLES-CROWE</t>
   </si>
   <si>
-    <t>Plays in afternoon in Y league</t>
+    <t>After 12:00</t>
   </si>
   <si>
     <t>104-GAUCHOS</t>
@@ -104,7 +104,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -167,11 +167,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,7 +225,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -295,10 +290,6 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -307,19 +298,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="10" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -450,7 +433,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H8" activeCellId="0" pane="topLeft" sqref="H8"/>
+      <selection activeCell="H5" activeCellId="0" pane="topLeft" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -530,7 +513,7 @@
       <c r="A4" s="11" t="n">
         <v>102</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
@@ -544,16 +527,16 @@
       <c r="G4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="17"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="19" t="n">
+      <c r="A5" s="11" t="n">
         <v>103</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
@@ -576,7 +559,7 @@
       <c r="A6" s="11" t="n">
         <v>104</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -584,22 +567,22 @@
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="16" t="n">
+      <c r="F6" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="17"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.45" outlineLevel="0" r="7">
       <c r="A7" s="11" t="n">
         <v>105</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
         <v>20</v>
       </c>
@@ -613,18 +596,18 @@
       <c r="G7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="8">
       <c r="A8" s="11" t="n">
         <v>106</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
@@ -638,16 +621,16 @@
       <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="17"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="9">
       <c r="A9" s="11" t="n">
         <v>107</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="15" t="s">
         <v>24</v>
       </c>
@@ -661,10 +644,10 @@
       <c r="G9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
@@ -672,13 +655,8 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5,H8">
-    <cfRule aboveAverage="0" bottom="0" dxfId="1" equalAverage="0" operator="duplicateValues" percent="0" priority="3" rank="0" text="" type="duplicateValues">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule aboveAverage="0" bottom="0" dxfId="2" equalAverage="0" operator="duplicateValues" percent="0" priority="4" rank="0" text="" type="duplicateValues">
+    <cfRule aboveAverage="0" bottom="0" dxfId="2" equalAverage="0" operator="duplicateValues" percent="0" priority="3" rank="0" text="" type="duplicateValues">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -61,13 +61,13 @@
     <t>C</t>
   </si>
   <si>
-    <t>Xr 4:40-5:40</t>
+    <t>no 4:40pm-5:40pm</t>
   </si>
   <si>
     <t>103-EAGLES-CROWE</t>
   </si>
   <si>
-    <t>After 12:00</t>
+    <t>Only After 12:00pm</t>
   </si>
   <si>
     <t>104-GAUCHOS</t>
@@ -76,13 +76,13 @@
     <t>I</t>
   </si>
   <si>
-    <t>Xd 1/12/13-1/20/13, xd 3/3/13</t>
+    <t>no 1/12/14-1/20/14, no 3/3/14</t>
   </si>
   <si>
     <t>105-IRISH-WEBSTER 1</t>
   </si>
   <si>
-    <t>xd 2/17/13</t>
+    <t>no 2/17/13</t>
   </si>
   <si>
     <t>Irish 2, Bears 3</t>
@@ -94,7 +94,7 @@
     <t>107-SHOOTIN TIGERS-JENNINGS</t>
   </si>
   <si>
-    <t>TH ONLY, NO Sat</t>
+    <t>only thursday, no saturday</t>
   </si>
 </sst>
 </file>
@@ -315,22 +315,7 @@
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <numFmt formatCode="GENERAL" numFmtId="164"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <sz val="11"/>
@@ -433,7 +418,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H5" activeCellId="0" pane="topLeft" sqref="H5"/>
+      <selection activeCell="H6" activeCellId="0" pane="topLeft" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,7 +494,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.85" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="4">
       <c r="A4" s="11" t="n">
         <v>102</v>
       </c>
@@ -532,7 +517,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="5">
       <c r="A5" s="11" t="n">
         <v>103</v>
       </c>
@@ -555,7 +540,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.45" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="6">
       <c r="A6" s="11" t="n">
         <v>104</v>
       </c>
@@ -578,7 +563,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.45" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="7">
       <c r="A7" s="11" t="n">
         <v>105</v>
       </c>
@@ -626,7 +611,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.45" outlineLevel="0" r="9">
       <c r="A9" s="11" t="n">
         <v>107</v>
       </c>
@@ -656,7 +641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule aboveAverage="0" bottom="0" dxfId="2" equalAverage="0" operator="duplicateValues" percent="0" priority="3" rank="0" text="" type="duplicateValues">
+    <cfRule aboveAverage="0" bottom="0" dxfId="1" equalAverage="0" operator="duplicateValues" percent="0" priority="3" rank="0" text="" type="duplicateValues">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -67,7 +67,7 @@
     <t>103-EAGLES-CROWE</t>
   </si>
   <si>
-    <t>Only After 12:00pm</t>
+    <t>Only After 5:00pm</t>
   </si>
   <si>
     <t>104-GAUCHOS</t>
@@ -76,13 +76,13 @@
     <t>I</t>
   </si>
   <si>
-    <t>no 1/12/14-1/20/14, no 3/3/14</t>
+    <t>no 1/12/14-1/20/14, no 1/20/14</t>
   </si>
   <si>
     <t>105-IRISH-WEBSTER 1</t>
   </si>
   <si>
-    <t>no 2/17/13</t>
+    <t>No 1/17/14</t>
   </si>
   <si>
     <t>Irish 2, Bears 3</t>
@@ -418,7 +418,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H6" activeCellId="0" pane="topLeft" sqref="H6"/>
+      <selection activeCell="B9" activeCellId="0" pane="topLeft" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -477,7 +477,9 @@
       <c r="A3" s="11" t="n">
         <v>101</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
@@ -494,11 +496,13 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="4">
       <c r="A4" s="11" t="n">
         <v>102</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
@@ -517,11 +521,13 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="5">
       <c r="A5" s="11" t="n">
         <v>103</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
@@ -540,11 +546,13 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="6">
       <c r="A6" s="11" t="n">
         <v>104</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -563,11 +571,13 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="7">
       <c r="A7" s="11" t="n">
         <v>105</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="C7" s="15" t="s">
         <v>20</v>
       </c>
@@ -588,11 +598,13 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="8">
       <c r="A8" s="11" t="n">
         <v>106</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
@@ -611,11 +623,13 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.45" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="9">
       <c r="A9" s="11" t="n">
         <v>107</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="C9" s="15" t="s">
         <v>24</v>
       </c>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -67,7 +67,7 @@
     <t>103-EAGLES-CROWE</t>
   </si>
   <si>
-    <t>Only After 5:00pm</t>
+    <t>Only After 7:00pm</t>
   </si>
   <si>
     <t>104-GAUCHOS</t>
@@ -76,13 +76,13 @@
     <t>I</t>
   </si>
   <si>
-    <t>no 1/12/14-1/20/14, no 1/20/14</t>
+    <t>no 1/10/14-1/13/14, no 1/6/14</t>
   </si>
   <si>
     <t>105-IRISH-WEBSTER 1</t>
   </si>
   <si>
-    <t>No 1/17/14</t>
+    <t>No 1/12/14</t>
   </si>
   <si>
     <t>Irish 2, Bears 3</t>
@@ -418,7 +418,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B9" activeCellId="0" pane="topLeft" sqref="B9"/>
+      <selection activeCell="H5" activeCellId="0" pane="topLeft" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -82,7 +82,7 @@
     <t>105-IRISH-WEBSTER 1</t>
   </si>
   <si>
-    <t>No 1/12/14</t>
+    <t>No 1/12/14, only before 10:00pm</t>
   </si>
   <si>
     <t>Irish 2, Bears 3</t>
@@ -418,7 +418,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H5" activeCellId="0" pane="topLeft" sqref="H5"/>
+      <selection activeCell="H8" activeCellId="0" pane="topLeft" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -473,7 +473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="3">
       <c r="A3" s="11" t="n">
         <v>101</v>
       </c>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>TEAM  LIST  AS  OF :</t>
   </si>
@@ -61,7 +61,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>no 4:40pm-5:40pm</t>
+    <t>no 5:40pm-6:40pm</t>
   </si>
   <si>
     <t>103-EAGLES-CROWE</t>
@@ -91,10 +91,13 @@
     <t>106-PATRIOTS</t>
   </si>
   <si>
+    <t>no 6:40pm-7:40pm</t>
+  </si>
+  <si>
     <t>107-SHOOTIN TIGERS-JENNINGS</t>
   </si>
   <si>
-    <t>only thursday, no saturday</t>
+    <t>pref thursday, no saturday</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H8" activeCellId="0" pane="topLeft" sqref="H8"/>
+      <selection activeCell="H18" activeCellId="0" pane="topLeft" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I8" s="17"/>
     </row>
@@ -631,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12" t="s">
@@ -644,7 +647,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" s="17"/>
     </row>
